--- a/medicine/Enfance/Christophe_Lambert_(écrivain)/Christophe_Lambert_(écrivain).xlsx
+++ b/medicine/Enfance/Christophe_Lambert_(écrivain)/Christophe_Lambert_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christophe_Lambert_(%C3%A9crivain)</t>
+          <t>Christophe_Lambert_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Lambert, né en 1969 à Châtenay-Malabry, est un écrivain français. Auteur très prolifique, il a déjà produit en quelques années près d'une trentaine de romans touchant à tous les genres : policier, aventure, fantasy ou science-fiction.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christophe_Lambert_(%C3%A9crivain)</t>
+          <t>Christophe_Lambert_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de cinéma, il réalise plusieurs métrages puis travaille pour la télévision (notamment pour M6) et dirige des ateliers vidéos dans les collèges. Depuis quelques années[Quand ?], il ne vit cependant plus que de sa plume et réussit à publier environ quatre ou cinq romans par an.
 Il fait ses débuts en littérature en 1996, à l'âge de 27 ans, en publiant Sitcom en péril dans la collection Vertige des éditions Hachette, un roman policier pour la jeunesse teinté d'humour et de critique sociale qui se déroule dans les milieux de la télévision qu'il connait bien.
 Dès la parution de son premier roman de science-fiction en 1997, dont l'action a pour cadre un bagne orbital et qui s'intitule La Nuit des mutants, il reçoit le prix Ozone.
 En 2000, il quitte Hachette pour les Éditions Mango, suivant Denis Guiot qui y devient le nouveau directeur de la collection Autre monde. Sa première œuvre pour cette nouvelle maison sera Le Souffle de Mars, un hommage aux films d'horreur de John Carpenter.
 Puisant parfois son inspiration parmi les nombreux films de genre visionnés pendant son adolescence, Christophe Lambert a écrit une trilogie de space-opera, Les Chroniques d'Arkhadie (2001/2003), en hommage à Star Wars qu'il découvrit, ébloui, à l'âge de 10 ans.
-Dans les années 2010, il écrit plusieurs novélisations chez Ankama Éditions, développant l'univers du Krosmoz[1]
+Dans les années 2010, il écrit plusieurs novélisations chez Ankama Éditions, développant l'univers du Krosmoz
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christophe_Lambert_(%C3%A9crivain)</t>
+          <t>Christophe_Lambert_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +561,95 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il existe une catégorie consacrée à ce sujet : Roman de Christophe Lambert.
-Romans jeunesse
-Série Les Chroniques d'Arkhadie
-Les Sentinelles de l’Ekluse, Bayard Jeunesse, 2001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les Chroniques d'Arkhadie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Sentinelles de l’Ekluse, Bayard Jeunesse, 2001
 Le Bagne de Méphisto, Bayard Jeunesse, 2002
-Les Vaisseaux de la liberté, Bayard Jeunesse, 2003
-Série Wakfu
-L'Attaque surprise, Bayard Jeunesse, 2013
+Les Vaisseaux de la liberté, Bayard Jeunesse, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Wakfu</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Attaque surprise, Bayard Jeunesse, 2013
 Le Repaire des Roublards, Bayard Jeunesse, 2013
 L'affaire est dans le sac, Bayard Jeunesse, 2013
 L'Eau et la Glace, Bayard Jeunesse, 2013
@@ -565,25 +657,177 @@
 Réunion de famille, Bayard Jeunesse, 2014
 Les Naufrageurs, Bayard Jeunesse, 2014
 Lîle de Gingerbrède, Bayard Jeunesse, 2015
-Le Spectre aux doigts d'or, Bayard Jeunesse, 2015
-Série Dofus : Aux trésors de Kérubim
-Le Ciel sur la tête, Bayard Jeunesse, 2014
+Le Spectre aux doigts d'or, Bayard Jeunesse, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Dofus : Aux trésors de Kérubim</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Ciel sur la tête, Bayard Jeunesse, 2014
 Une étoile pour le shérif, Bayard Jeunesse, 2014
 Panique à Astrub !, Bayard Jeunesse, 2014
 Le Décapiteur de soiffard, Bayard Jeunesse, 2014
-Tous en piste !, Bayard Jeunesse, 2015
-Série L'Agence Pendergast
-Le Prince des ténèbres, Didier Jeunesse, 2019
+Tous en piste !, Bayard Jeunesse, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série L'Agence Pendergast</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Prince des ténèbres, Didier Jeunesse, 2019
 Le Monstre des égouts, Didier Jeunesse, 2019
 La sirène du Mississippi, Didier Jeunesse, 2019
 Les Griffes de la forêt, Didier Jeunesse, 2020
-Les enfants de la lune, Didier Jeunesse, 2021
-Série (Presque) seul sur Mars
-Christophe Lambert et Wouzit, éd. Milan
+Les enfants de la lune, Didier Jeunesse, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série (Presque) seul sur Mars</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Christophe Lambert et Wouzit, éd. Milan
  Oups, j'ai raté la fusée !, 2022
- 58 minutes pour survivre, 2022
-Romans indépendants
-La Nuit des mutants, Hachette Jeunesse, 1997
+ 58 minutes pour survivre, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Nuit des mutants, Hachette Jeunesse, 1997
 Sitcom en péril, Hachette Jeunesse, 1997
 Meurtres à 30000 km/s, Hachette Jeunesse, 1998
 Pages blanches et Magie noire, Degliame, 1998
@@ -620,23 +864,166 @@
 Lever de rideau sur Terezin, Bayard Jeunesse, 2015
 Dofus - Livre 1 : Julith, Bayard Jeunesse, 2016
 Soul Breakers, Bayard Jeunesse, 2017
-Si tu vois le wendigo, Syros, 2021
-Romans adultes
-Série T.I.M.E. Stories
-Le Dossier Heiden, Bragelonne, 2019
-Romans indépendants
-Les étoiles meurent aussi, Flammarion, 2000La fusion froide est un des éléments de l'intrigue
+Si tu vois le wendigo, Syros, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans adultes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série T.I.M.E. Stories</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Dossier Heiden, Bragelonne, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans adultes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les étoiles meurent aussi, Flammarion, 2000La fusion froide est un des éléments de l'intrigue
 La Brèche, Fleuve noir, 2005
 Zoulou Kingdom, Fleuve noir, 2006
 Le Dos au mur, Intervista, 2008
 Le Commando des Immortels, Fleuve noir, 2008
 Vegas Mytho, Fleuve noir, 2010
-Aucun homme n’est une île, J'ai lu, coll. Nouveaux Millénaires, 2014Prix ActuSF de l'uchronie 2014 et grand prix de l'Imaginaire 2015
-Nouvelles
-La Compagnie de l'Air, Mango, coll. « Autres Mondes » n°17, 2003Nouvelle parue dans Demain la Terre,
-Homo jardinus, Flammarion, coll. « Tribal », 2007Nouvelle parue dans Dix façons d'assassiner notre planète
-Essais
-Comment écrire de la fiction ? La Charpente du récit, Argyll, 2023, 222 p.</t>
+Aucun homme n’est une île, J'ai lu, coll. Nouveaux Millénaires, 2014Prix ActuSF de l'uchronie 2014 et grand prix de l'Imaginaire 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La Compagnie de l'Air, Mango, coll. « Autres Mondes » n°17, 2003Nouvelle parue dans Demain la Terre,
+Homo jardinus, Flammarion, coll. « Tribal », 2007Nouvelle parue dans Dix façons d'assassiner notre planète</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Christophe_Lambert_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Lambert_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Comment écrire de la fiction ? La Charpente du récit, Argyll, 2023, 222 p.</t>
         </is>
       </c>
     </row>
